--- a/Dummy Switch Data TXO Testing 20251017.xlsx
+++ b/Dummy Switch Data TXO Testing 20251017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lumen\Workflow Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF9AF6-6678-4790-8654-698477BF6A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD70AAA-BA66-4F10-B63E-45F40A8852FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{DEC07B36-78A3-4015-A159-4BC647A7F56A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="194">
   <si>
     <t>CO</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>9641</t>
+  </si>
+  <si>
+    <t>PLEASE NOTE THAT THIS IS AI GENERATED FICTICIOUS DATA FOR TESTING PURPOSES ONLY</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +691,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -739,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -798,6 +809,9 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1136,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57329DEE-8C1B-4093-A54F-7849334596B7}">
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1181,7 @@
     <col min="21" max="22" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>129</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1302,8 +1316,11 @@
       <c r="V2" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -1367,8 +1384,9 @@
       <c r="V3" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -1432,8 +1450,9 @@
       <c r="V4" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>156</v>
       </c>
@@ -1497,8 +1516,9 @@
       <c r="V5" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>156</v>
       </c>
@@ -1562,8 +1582,9 @@
       <c r="V6" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -1627,8 +1648,9 @@
       <c r="V7" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1692,8 +1714,9 @@
       <c r="V8" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>156</v>
       </c>
@@ -1757,8 +1780,9 @@
       <c r="V9" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -1822,8 +1846,9 @@
       <c r="V10" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -1887,8 +1912,9 @@
       <c r="V11" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -1952,8 +1978,9 @@
       <c r="V12" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>156</v>
       </c>
@@ -2017,8 +2044,9 @@
       <c r="V13" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -2082,8 +2110,9 @@
       <c r="V14" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -2147,8 +2176,9 @@
       <c r="V15" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>156</v>
       </c>
@@ -2212,8 +2242,9 @@
       <c r="V16" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>156</v>
       </c>
@@ -2277,8 +2308,9 @@
       <c r="V17" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -2342,8 +2374,9 @@
       <c r="V18" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -2407,8 +2440,9 @@
       <c r="V19" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -2472,8 +2506,9 @@
       <c r="V20" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>156</v>
       </c>
@@ -2537,8 +2572,9 @@
       <c r="V21" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>156</v>
       </c>
@@ -2602,8 +2638,9 @@
       <c r="V22" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2667,8 +2704,9 @@
       <c r="V23" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="25"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -2732,8 +2770,9 @@
       <c r="V24" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>156</v>
       </c>
@@ -2797,8 +2836,9 @@
       <c r="V25" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -2862,8 +2902,9 @@
       <c r="V26" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="25"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -2927,8 +2968,9 @@
       <c r="V27" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -2992,8 +3034,9 @@
       <c r="V28" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="25"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>156</v>
       </c>
@@ -3057,8 +3100,9 @@
       <c r="V29" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="25"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -3122,8 +3166,9 @@
       <c r="V30" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="25"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -3187,8 +3232,9 @@
       <c r="V31" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="25"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -3252,8 +3298,9 @@
       <c r="V32" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="25"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>156</v>
       </c>
@@ -3317,8 +3364,9 @@
       <c r="V33" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="25"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -3382,8 +3430,9 @@
       <c r="V34" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="25"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>156</v>
       </c>
@@ -3447,8 +3496,9 @@
       <c r="V35" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="25"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>156</v>
       </c>
@@ -3512,8 +3562,9 @@
       <c r="V36" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="25"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>156</v>
       </c>
@@ -3577,8 +3628,9 @@
       <c r="V37" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="25"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3642,8 +3694,9 @@
       <c r="V38" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="25"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -3710,8 +3763,9 @@
       <c r="V39" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="25"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>156</v>
       </c>
@@ -3775,8 +3829,9 @@
       <c r="V40" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="25"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>156</v>
       </c>
@@ -3840,8 +3895,9 @@
       <c r="V41" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="25"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3905,8 +3961,9 @@
       <c r="V42" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="25"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3970,8 +4027,9 @@
       <c r="V43" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="25"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -4035,8 +4093,9 @@
       <c r="V44" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="25"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>156</v>
       </c>
@@ -4100,8 +4159,9 @@
       <c r="V45" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="25"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -4165,8 +4225,9 @@
       <c r="V46" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="25"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -4230,8 +4291,9 @@
       <c r="V47" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="25"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -4295,8 +4357,9 @@
       <c r="V48" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="25"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>156</v>
       </c>
@@ -4360,8 +4423,9 @@
       <c r="V49" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="25"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -4425,8 +4489,9 @@
       <c r="V50" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="25"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -4491,7 +4556,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>156</v>
       </c>
@@ -4556,7 +4621,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>156</v>
       </c>
@@ -4621,7 +4686,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -4686,7 +4751,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -4751,7 +4816,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -4816,7 +4881,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>156</v>
       </c>
@@ -4881,7 +4946,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>156</v>
       </c>
@@ -4946,7 +5011,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -5011,7 +5076,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -5076,7 +5141,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>156</v>
       </c>
@@ -5141,7 +5206,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>156</v>
       </c>
@@ -5206,7 +5271,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>156</v>
       </c>
@@ -5271,7 +5336,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>156</v>
       </c>
@@ -5572,6 +5637,9 @@
       <c r="P78" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="W2:W50"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
